--- a/PSP/20141235 문혁주 PSP.xlsx
+++ b/PSP/20141235 문혁주 PSP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/2019년2학기/융합소프트웨어종합설계/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/2019:02/YoongSoJongSeol/ChemicalManagementApplication/PSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2CA1FF4-7933-AC46-8AF1-BE1E04CDB919}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098CE3C1-F821-D74E-9627-149E796EDFB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16780" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
@@ -60,6 +61,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 중간에 interrupt 걸린 시간 포함 작업시간. 10분 단위로 작성
@@ -74,6 +76,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 원래 Phase를 기술하지만, 우리는 관련된 Activity가 뭔지를 기술하도록 함. 성혜가 작성하는 Test Case 정도의 Granulity로 작성할 것</t>
@@ -85,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -133,6 +136,90 @@
   <si>
     <t>강의주제 선정 및 프로젝트 수행계획서 작성</t>
   </si>
+  <si>
+    <t>문혁주</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수행계획서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재구상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토론</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -143,7 +230,7 @@
     <numFmt numFmtId="177" formatCode="h:mm:ss\ am/pm"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -176,6 +263,24 @@
     <font>
       <sz val="8"/>
       <name val="나눔명조"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -215,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -252,6 +357,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -565,7 +675,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -604,6 +714,9 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="E3" s="20" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1">
       <c r="D4" s="4"/>
@@ -674,13 +787,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="13">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
+    <row r="8" spans="1:11" ht="14">
+      <c r="A8" s="21">
+        <v>43726</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>120</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="13">
       <c r="A9" s="15"/>

--- a/PSP/20141235 문혁주 PSP.xlsx
+++ b/PSP/20141235 문혁주 PSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/2019:02/YoongSoJongSeol/ChemicalManagementApplication/PSP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\문혁주\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098CE3C1-F821-D74E-9627-149E796EDFB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B23EBB4-5EC6-4F82-9D87-EFD8E75E40C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16780" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -220,15 +220,18 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>화브리타임</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
-    <numFmt numFmtId="177" formatCode="h:mm:ss\ am/pm"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
+    <numFmt numFmtId="165" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -339,26 +342,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -666,7 +669,6 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst/>
 </a:theme>
 </file>
 
@@ -675,18 +677,18 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" customWidth="1"/>
-    <col min="7" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="6.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" customWidth="1"/>
+    <col min="6" max="6" width="40.6328125" customWidth="1"/>
+    <col min="7" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="11.25" customHeight="1">
@@ -710,7 +712,9 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
@@ -747,7 +751,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="14">
+    <row r="6" spans="1:11" ht="13">
       <c r="A6" s="8">
         <v>43716</v>
       </c>
@@ -767,7 +771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13">
+    <row r="7" spans="1:11" ht="12.5">
       <c r="A7" s="8">
         <v>43716</v>
       </c>
@@ -787,7 +791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14">
+    <row r="8" spans="1:11" ht="13">
       <c r="A8" s="21">
         <v>43726</v>
       </c>
@@ -807,7 +811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13">
+    <row r="9" spans="1:11" ht="12.5">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -815,7 +819,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
     </row>
-    <row r="10" spans="1:11" ht="13">
+    <row r="10" spans="1:11" ht="12.5">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -823,7 +827,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="18"/>
     </row>
-    <row r="11" spans="1:11" ht="13">
+    <row r="11" spans="1:11" ht="12.5">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -831,7 +835,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:11" ht="13">
+    <row r="12" spans="1:11" ht="12.5">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -839,7 +843,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="18"/>
     </row>
-    <row r="13" spans="1:11" ht="13">
+    <row r="13" spans="1:11" ht="12.5">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -855,7 +859,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:11" ht="13">
+    <row r="15" spans="1:11" ht="12.5">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -863,7 +867,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
     </row>
-    <row r="16" spans="1:11" ht="13">
+    <row r="16" spans="1:11" ht="12.5">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -871,7 +875,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
     </row>
-    <row r="17" spans="1:6" ht="13">
+    <row r="17" spans="1:6" ht="12.5">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -879,7 +883,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -895,7 +899,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
     </row>
-    <row r="20" spans="1:6" ht="13">
+    <row r="20" spans="1:6" ht="12.5">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -903,7 +907,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -911,7 +915,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6" ht="13">
+    <row r="22" spans="1:6" ht="12.5">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -927,7 +931,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="1:6" ht="13">
+    <row r="24" spans="1:6" ht="12.5">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -951,7 +955,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="18"/>
     </row>
-    <row r="27" spans="1:6" ht="13">
+    <row r="27" spans="1:6" ht="12.5">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -959,7 +963,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="18"/>
     </row>
-    <row r="28" spans="1:6" ht="13">
+    <row r="28" spans="1:6" ht="12.5">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -967,7 +971,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="18"/>
     </row>
-    <row r="29" spans="1:6" ht="13">
+    <row r="29" spans="1:6" ht="12.5">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -975,7 +979,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="18"/>
     </row>
-    <row r="30" spans="1:6" ht="13">
+    <row r="30" spans="1:6" ht="12.5">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -983,7 +987,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="18"/>
     </row>
-    <row r="31" spans="1:6" ht="13">
+    <row r="31" spans="1:6" ht="12.5">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -991,7 +995,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="18"/>
     </row>
-    <row r="32" spans="1:6" ht="13">
+    <row r="32" spans="1:6" ht="12.5">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -999,7 +1003,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="18"/>
     </row>
-    <row r="33" spans="1:6" ht="13">
+    <row r="33" spans="1:6" ht="12.5">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -1007,7 +1011,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="18"/>
     </row>
-    <row r="34" spans="1:6" ht="13">
+    <row r="34" spans="1:6" ht="12.5">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -1015,7 +1019,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
     </row>
-    <row r="35" spans="1:6" ht="13">
+    <row r="35" spans="1:6" ht="12.5">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -1023,7 +1027,7 @@
       <c r="E35" s="17"/>
       <c r="F35" s="18"/>
     </row>
-    <row r="36" spans="1:6" ht="13">
+    <row r="36" spans="1:6" ht="12.5">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -1031,7 +1035,7 @@
       <c r="E36" s="11"/>
       <c r="F36" s="18"/>
     </row>
-    <row r="37" spans="1:6" ht="13">
+    <row r="37" spans="1:6" ht="12.5">
       <c r="A37" s="18"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -1039,7 +1043,7 @@
       <c r="E37" s="11"/>
       <c r="F37" s="18"/>
     </row>
-    <row r="38" spans="1:6" ht="13">
+    <row r="38" spans="1:6" ht="12.5">
       <c r="A38" s="18"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -1312,9 +1316,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1430,9 +1434,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1548,9 +1552,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1666,9 +1670,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1784,9 +1788,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1902,9 +1906,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2020,9 +2024,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2138,9 +2142,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2256,9 +2260,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2374,9 +2378,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2492,9 +2496,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2610,9 +2614,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2728,9 +2732,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2846,9 +2850,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2964,9 +2968,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>

--- a/PSP/20141235 문혁주 PSP.xlsx
+++ b/PSP/20141235 문혁주 PSP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\문혁주\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\문혁주\Desktop\3team\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B23EBB4-5EC6-4F82-9D87-EFD8E75E40C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FADA035-D27C-43F8-968D-7645247AD48E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>화브리타임</t>
+  </si>
+  <si>
+    <t>9월 25일</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use case outline 과 다이어그램 토론 및 작성 </t>
   </si>
 </sst>
 </file>
@@ -677,7 +683,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -812,12 +818,24 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.5">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
+      <c r="A9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>120</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="12.5">
       <c r="A10" s="15"/>

--- a/PSP/20141235 문혁주 PSP.xlsx
+++ b/PSP/20141235 문혁주 PSP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\문혁주\Desktop\3team\git\ChemicalManagementApplication\PSP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\문혁주\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E97D01F-2F4F-4273-B6FF-21889F2B7255}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ECE229-59F1-48CB-B660-98E66A28C41C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -224,28 +224,73 @@
     <t>화브리타임</t>
   </si>
   <si>
-    <t>9월 25일</t>
-  </si>
-  <si>
     <t xml:space="preserve">Use case outline 과 다이어그램 토론 및 작성 </t>
   </si>
   <si>
-    <t>9월 29일</t>
+    <t xml:space="preserve">Use case outline 과 다이어그램 토론 및 재작성 </t>
   </si>
   <si>
-    <t xml:space="preserve">Use case outline 과 다이어그램 토론 및 재작성 </t>
+    <r>
+      <t xml:space="preserve">Use Case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+  </si>
+  <si>
+    <t>Use Case Specification 토의 및 작성</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
     <numFmt numFmtId="165" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="167" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -299,6 +344,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -308,7 +360,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -331,11 +383,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -377,6 +444,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -689,7 +766,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -824,8 +901,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.5">
-      <c r="A9" s="15" t="s">
-        <v>15</v>
+      <c r="A9" s="15">
+        <v>43733</v>
       </c>
       <c r="B9" s="16">
         <v>0.75</v>
@@ -840,12 +917,12 @@
         <v>120</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.5">
-      <c r="A10" s="15" t="s">
-        <v>17</v>
+      <c r="A10" s="15">
+        <v>43737</v>
       </c>
       <c r="B10" s="16">
         <v>0.66666666666666663</v>
@@ -860,32 +937,68 @@
         <v>180</v>
       </c>
       <c r="F10" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="13">
+      <c r="A11" s="23">
+        <v>43740</v>
+      </c>
+      <c r="B11" s="24">
+        <v>0.875</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0</v>
+      </c>
+      <c r="E11" s="26">
+        <v>120</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="13">
+      <c r="A12" s="23">
+        <v>43744</v>
+      </c>
+      <c r="B12" s="24">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0</v>
+      </c>
+      <c r="E12" s="26">
+        <v>120</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12.5">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" ht="12.5">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" ht="12.5">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
+    <row r="13" spans="1:11" ht="13">
+      <c r="A13" s="15">
+        <v>43745</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.875</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <v>180</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
       <c r="A14" s="15"/>

--- a/PSP/20141235 문혁주 PSP.xlsx
+++ b/PSP/20141235 문혁주 PSP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\문혁주\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ECE229-59F1-48CB-B660-98E66A28C41C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C98364-09DF-4F18-BBF7-A85268D4330D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -279,6 +279,106 @@
   <si>
     <t>Use Case Specification 토의 및 작성</t>
   </si>
+  <si>
+    <t>10월 8일</t>
+  </si>
+  <si>
+    <t>GUI 작성</t>
+  </si>
+  <si>
+    <t>10월 13일</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use case specification 작성 회의 </t>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <t>Use Case Specification 수정</t>
+  </si>
+  <si>
+    <t>10월 26일</t>
+  </si>
+  <si>
+    <t>GUI 수정</t>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SRS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회의</t>
+    </r>
+  </si>
+  <si>
+    <t>11월 11일</t>
+  </si>
 </sst>
 </file>
 
@@ -402,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -454,6 +554,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -766,7 +885,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -980,7 +1099,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13">
+    <row r="13" spans="1:11" ht="12.5">
       <c r="A13" s="15">
         <v>43745</v>
       </c>
@@ -1001,47 +1120,109 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
+      <c r="A14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="36">
+        <v>0.625</v>
+      </c>
+      <c r="D14" s="37">
+        <v>0</v>
+      </c>
+      <c r="E14" s="38">
+        <v>180</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="12.5">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:11" ht="12.5">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
+      <c r="A15" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="33">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C15" s="33">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D15" s="30">
+        <v>0</v>
+      </c>
+      <c r="E15" s="31">
+        <v>120</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13">
+      <c r="A16" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="C16" s="33">
+        <v>0.875</v>
+      </c>
+      <c r="D16" s="30">
+        <v>0</v>
+      </c>
+      <c r="E16" s="31">
+        <v>180</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="12.5">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
+      <c r="A17" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="36">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C17" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="37">
+        <v>0</v>
+      </c>
+      <c r="E17" s="38">
+        <v>120</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="13">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="19"/>
+      <c r="A18" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="C18" s="33">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D18" s="30">
+        <v>0</v>
+      </c>
+      <c r="E18" s="31">
+        <v>120</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A19" s="15"/>
+      <c r="A19" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="11"/>

--- a/PSP/20141235 문혁주 PSP.xlsx
+++ b/PSP/20141235 문혁주 PSP.xlsx
@@ -1,53 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\문혁주\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535749FF-C7FE-4A9B-95A3-F6F250F2CD2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="작성자명" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Sheet3" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Sheet4" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Sheet5" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Sheet6" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Sheet7" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Sheet8" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Sheet9" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="Sheet10" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="Sheet11" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="Sheet12" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="Sheet13" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="Sheet14" sheetId="14" r:id="rId17"/>
-    <sheet state="visible" name="Sheet15" sheetId="15" r:id="rId18"/>
-    <sheet state="visible" name="Sheet16" sheetId="16" r:id="rId19"/>
+    <sheet name="작성자명" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D5">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">Soojin Park:
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E5">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t xml:space="preserve">Soojin Park:
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">Soojin Park:
 중간에 interrupt 걸린 시간 포함 작업시간. 10분 단위로 작성
 </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F5">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <t xml:space="preserve">Soojin Park:
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Soojin Park:
 원래 Phase를 기술하지만, 우리는 관련된 Activity가 뭔지를 기술하도록 함. 성혜가 작성하는 Test Case 정도의 Granulity로 작성할 것</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -55,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -74,9 +104,9 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <b/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> :</t>
     </r>
@@ -111,64 +141,64 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
       </rPr>
       <t>프로젝트</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
       </rPr>
       <t>수행계획서</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
       </rPr>
       <t>재구상</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
       </rPr>
       <t>및</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
       </rPr>
       <t>토론</t>
     </r>
@@ -185,16 +215,16 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">Outline </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
       </rPr>
       <t>수정</t>
     </r>
@@ -205,17 +235,17 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">Specification </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="돋움"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>작성</t>
     </r>
@@ -241,22 +271,22 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
       </rPr>
       <t>월</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> 24</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
       </rPr>
       <t>일</t>
     </r>
@@ -276,22 +306,22 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
       </rPr>
       <t>월</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <sz val="10.0"/>
       </rPr>
       <t>28</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
       </rPr>
       <t>일</t>
     </r>
@@ -302,8 +332,8 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
-        <sz val="10.0"/>
       </rPr>
       <t>회의</t>
     </r>
@@ -320,47 +350,140 @@
   <si>
     <t>Table Diagram 작성 및 발표 준비</t>
   </si>
+  <si>
+    <t>11월 30일</t>
+  </si>
+  <si>
+    <t>11월 29일</t>
+  </si>
+  <si>
+    <t>Software Requirement Specification 최종 수정</t>
+  </si>
+  <si>
+    <t>11월 28일</t>
+  </si>
+  <si>
+    <t>11월 26일</t>
+  </si>
+  <si>
+    <t>React 개발 및 각자 파트 분리</t>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 20일</t>
+    </r>
+  </si>
+  <si>
+    <t>11월 23일</t>
+  </si>
+  <si>
+    <t>1번 기능 React 개발</t>
+  </si>
+  <si>
+    <t>11월 16일</t>
+  </si>
+  <si>
+    <t>GitHub 정리 및 React 개발</t>
+  </si>
+  <si>
+    <t>11월 17일</t>
+  </si>
+  <si>
+    <t>React 숙제 완성</t>
+  </si>
+  <si>
+    <t>Test Data Set 숙제 완성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Data Set 작성 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
     <numFmt numFmtId="165" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="13">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Dotum"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Dotum"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="함초롬바탕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -368,11 +491,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -386,140 +515,144 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="47">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="20" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="20" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="20" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="백분율 2" xfId="1" xr:uid="{B9D605B0-81B6-490F-BE94-B5D47D65AA6E}"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -709,29 +842,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.57"/>
-    <col customWidth="1" min="2" max="2" width="10.14"/>
-    <col customWidth="1" min="3" max="3" width="6.14"/>
-    <col customWidth="1" min="4" max="4" width="10.14"/>
-    <col customWidth="1" min="5" max="5" width="8.43"/>
-    <col customWidth="1" min="6" max="6" width="40.57"/>
-    <col customWidth="1" min="7" max="11" width="7.57"/>
+    <col min="1" max="1" width="8.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" customWidth="1"/>
+    <col min="3" max="3" width="6.08984375" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" customWidth="1"/>
+    <col min="6" max="6" width="40.54296875" customWidth="1"/>
+    <col min="7" max="11" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="11.25" customHeight="1">
+    <row r="1" spans="1:11" ht="11.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,12 +878,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="11.25" customHeight="1">
+    <row r="2" spans="1:11" ht="11.25" customHeight="1">
       <c r="A2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" ht="11.25" customHeight="1">
+    <row r="3" spans="1:11" ht="11.25" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -762,11 +897,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="11.25" customHeight="1">
+    <row r="4" spans="1:11" ht="11.25" customHeight="1">
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -791,167 +926,167 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" ht="13">
       <c r="A6" s="9">
-        <v>43716.0</v>
+        <v>43716</v>
       </c>
       <c r="B6" s="10">
         <v>0.1875</v>
       </c>
       <c r="C6" s="11">
-        <v>0.7291666666666666</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D6" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6" s="13">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" ht="12.5">
       <c r="A7" s="9">
-        <v>43716.0</v>
+        <v>43716</v>
       </c>
       <c r="B7" s="11">
         <v>0.75</v>
       </c>
       <c r="C7" s="11">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D7" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7" s="13">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" ht="13">
       <c r="A8" s="16">
-        <v>43726.0</v>
+        <v>43726</v>
       </c>
       <c r="B8" s="11">
         <v>0.75</v>
       </c>
       <c r="C8" s="11">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D8" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8" s="13">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" ht="12.5">
       <c r="A9" s="9">
-        <v>43733.0</v>
+        <v>43733</v>
       </c>
       <c r="B9" s="11">
         <v>0.75</v>
       </c>
       <c r="C9" s="11">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D9" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E9" s="13">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" ht="12.5">
       <c r="A10" s="9">
-        <v>43737.0</v>
+        <v>43737</v>
       </c>
       <c r="B10" s="11">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C10" s="11">
-        <v>0.7916666666666666</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D10" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E10" s="13">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" ht="13">
       <c r="A11" s="17">
-        <v>43740.0</v>
+        <v>43740</v>
       </c>
       <c r="B11" s="18">
         <v>0.875</v>
       </c>
       <c r="C11" s="18">
-        <v>0.9583333333333334</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="D11" s="19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11" s="20">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" ht="13">
       <c r="A12" s="17">
-        <v>43744.0</v>
+        <v>43744</v>
       </c>
       <c r="B12" s="18">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C12" s="18">
-        <v>0.9166666666666666</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D12" s="19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E12" s="20">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" ht="12.5">
       <c r="A13" s="9">
-        <v>43745.0</v>
+        <v>43745</v>
       </c>
       <c r="B13" s="11">
         <v>0.875</v>
       </c>
       <c r="C13" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E13" s="13">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:11" ht="12.75" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
@@ -962,36 +1097,36 @@
         <v>0.625</v>
       </c>
       <c r="D14" s="23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E14" s="24">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" ht="12.5">
       <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="11">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C15" s="11">
-        <v>0.9166666666666666</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D15" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E15" s="13">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" ht="13">
       <c r="A16" s="9" t="s">
         <v>24</v>
       </c>
@@ -1002,36 +1137,36 @@
         <v>0.875</v>
       </c>
       <c r="D16" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E16" s="13">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="12.5">
       <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="22">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C17" s="22">
         <v>0.5</v>
       </c>
       <c r="D17" s="23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E17" s="24">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="9" t="s">
         <v>28</v>
       </c>
@@ -1039,19 +1174,19 @@
         <v>0.75</v>
       </c>
       <c r="C18" s="11">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D18" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E18" s="13">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:6" ht="12.75" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>30</v>
       </c>
@@ -1059,19 +1194,19 @@
         <v>0.75</v>
       </c>
       <c r="C19" s="11">
-        <v>0.9583333333333334</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="D19" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E19" s="13">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" ht="12.5">
       <c r="A20" s="15" t="s">
         <v>32</v>
       </c>
@@ -1082,96 +1217,197 @@
         <v>0.9375</v>
       </c>
       <c r="D20" s="12">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E20" s="13">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="13">
+        <v>270</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="15"/>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A22" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="C22" s="43">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D22" s="44">
+        <v>0</v>
+      </c>
+      <c r="E22" s="45">
+        <v>240</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="15"/>
+    <row r="23" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A23" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="40">
+        <v>0.75</v>
+      </c>
+      <c r="C23" s="40">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D23" s="38">
+        <v>0</v>
+      </c>
+      <c r="E23" s="39">
+        <v>240</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="15"/>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="13">
+        <v>330</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="15"/>
+    <row r="25" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A25" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="C25" s="33">
+        <v>0.9375</v>
+      </c>
+      <c r="D25" s="34">
+        <v>0</v>
+      </c>
+      <c r="E25" s="35">
+        <v>270</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="15"/>
+    <row r="26" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A26" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="33">
+        <v>0.625</v>
+      </c>
+      <c r="C26" s="33">
+        <v>0.6875</v>
+      </c>
+      <c r="D26" s="34">
+        <v>0</v>
+      </c>
+      <c r="E26" s="35">
+        <v>90</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="15"/>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A27" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="27">
+        <v>0.4375</v>
+      </c>
+      <c r="C27" s="27">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D27" s="28">
+        <v>0</v>
+      </c>
+      <c r="E27" s="29">
+        <v>120</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="15"/>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A28" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="27">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D28" s="28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="29">
+        <v>420</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="15"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+      <c r="E29" s="13">
+        <v>30</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="9"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="15"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1179,7 +1415,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="15"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1187,7 +1423,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="15"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1195,7 +1431,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="15"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1203,7 +1439,7 @@
       <c r="E34" s="13"/>
       <c r="F34" s="15"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="9"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1211,7 +1447,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="15"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="9"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1219,7 +1455,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="15"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="15"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1227,7 +1463,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="15"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="15"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -1235,266 +1471,266 @@
       <c r="E38" s="12"/>
       <c r="F38" s="15"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="1:6" ht="12.75" customHeight="1">
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" spans="1:6" ht="12.75" customHeight="1">
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" spans="1:6" ht="12.75" customHeight="1">
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" spans="1:6" ht="12.75" customHeight="1">
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" spans="1:6" ht="12.75" customHeight="1">
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" spans="1:6" ht="12.75" customHeight="1">
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" spans="1:6" ht="12.75" customHeight="1">
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" spans="1:6" ht="12.75" customHeight="1">
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" spans="1:6" ht="12.75" customHeight="1">
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" spans="1:6" ht="12.75" customHeight="1">
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" spans="4:5" ht="12.75" customHeight="1">
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" spans="4:5" ht="12.75" customHeight="1">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" spans="4:5" ht="12.75" customHeight="1">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" spans="4:5" ht="12.75" customHeight="1">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" spans="4:5" ht="12.75" customHeight="1">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" spans="4:5" ht="12.75" customHeight="1">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" spans="4:5" ht="12.75" customHeight="1">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" spans="4:5" ht="12.75" customHeight="1">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" spans="4:5" ht="12.75" customHeight="1">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" spans="4:5" ht="12.75" customHeight="1">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" spans="4:5" ht="12.75" customHeight="1">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" spans="4:5" ht="12.75" customHeight="1">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" spans="4:5" ht="12.75" customHeight="1">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" spans="4:5" ht="12.75" customHeight="1">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" spans="4:5" ht="12.75" customHeight="1">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="64" spans="4:5" ht="12.75" customHeight="1">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" spans="4:5" ht="12.75" customHeight="1">
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" spans="4:5" ht="12.75" customHeight="1">
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
+    <row r="67" spans="4:5" ht="12.75" customHeight="1">
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" spans="4:5" ht="12.75" customHeight="1">
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
+    <row r="69" spans="4:5" ht="12.75" customHeight="1">
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
+    <row r="70" spans="4:5" ht="12.75" customHeight="1">
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" spans="4:5" ht="12.75" customHeight="1">
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
+    <row r="72" spans="4:5" ht="12.75" customHeight="1">
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" spans="4:5" ht="12.75" customHeight="1">
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" spans="4:5" ht="12.75" customHeight="1">
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" spans="4:5" ht="12.75" customHeight="1">
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" spans="4:5" ht="12.75" customHeight="1">
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" spans="4:5" ht="12.75" customHeight="1">
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" spans="4:5" ht="12.75" customHeight="1">
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
+    <row r="79" spans="4:5" ht="12.75" customHeight="1">
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
+    <row r="80" spans="4:5" ht="12.75" customHeight="1">
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
+    <row r="81" spans="4:5" ht="12.75" customHeight="1">
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
     </row>
-    <row r="82" ht="12.75" customHeight="1">
+    <row r="82" spans="4:5" ht="12.75" customHeight="1">
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
     </row>
-    <row r="83" ht="12.75" customHeight="1">
+    <row r="83" spans="4:5" ht="12.75" customHeight="1">
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
     </row>
-    <row r="84" ht="12.75" customHeight="1">
+    <row r="84" spans="4:5" ht="12.75" customHeight="1">
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
     </row>
-    <row r="85" ht="12.75" customHeight="1">
+    <row r="85" spans="4:5" ht="12.75" customHeight="1">
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
     </row>
-    <row r="86" ht="12.75" customHeight="1">
+    <row r="86" spans="4:5" ht="12.75" customHeight="1">
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
     </row>
-    <row r="87" ht="12.75" customHeight="1">
+    <row r="87" spans="4:5" ht="12.75" customHeight="1">
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
     </row>
-    <row r="88" ht="12.75" customHeight="1">
+    <row r="88" spans="4:5" ht="12.75" customHeight="1">
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" ht="12.75" customHeight="1">
+    <row r="89" spans="4:5" ht="12.75" customHeight="1">
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
     </row>
-    <row r="90" ht="12.75" customHeight="1">
+    <row r="90" spans="4:5" ht="12.75" customHeight="1">
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
     </row>
-    <row r="91" ht="12.75" customHeight="1">
+    <row r="91" spans="4:5" ht="12.75" customHeight="1">
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
     </row>
-    <row r="92" ht="12.75" customHeight="1">
+    <row r="92" spans="4:5" ht="12.75" customHeight="1">
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
     </row>
-    <row r="93" ht="12.75" customHeight="1">
+    <row r="93" spans="4:5" ht="12.75" customHeight="1">
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
     </row>
-    <row r="94" ht="12.75" customHeight="1">
+    <row r="94" spans="4:5" ht="12.75" customHeight="1">
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
     </row>
-    <row r="95" ht="12.75" customHeight="1">
+    <row r="95" spans="4:5" ht="12.75" customHeight="1">
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
     </row>
-    <row r="96" ht="12.75" customHeight="1">
+    <row r="96" spans="4:5" ht="12.75" customHeight="1">
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
     </row>
-    <row r="97" ht="12.75" customHeight="1">
+    <row r="97" spans="4:5" ht="12.75" customHeight="1">
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
     </row>
-    <row r="98" ht="12.75" customHeight="1">
+    <row r="98" spans="4:5" ht="12.75" customHeight="1">
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
     </row>
-    <row r="99" ht="12.75" customHeight="1">
+    <row r="99" spans="4:5" ht="12.75" customHeight="1">
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
     </row>
-    <row r="100" ht="12.75" customHeight="1">
+    <row r="100" spans="4:5" ht="12.75" customHeight="1">
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="101" spans="4:5" ht="15.75" customHeight="1"/>
+    <row r="102" spans="4:5" ht="15.75" customHeight="1"/>
+    <row r="103" spans="4:5" ht="15.75" customHeight="1"/>
+    <row r="104" spans="4:5" ht="15.75" customHeight="1"/>
+    <row r="105" spans="4:5" ht="15.75" customHeight="1"/>
+    <row r="106" spans="4:5" ht="15.75" customHeight="1"/>
+    <row r="107" spans="4:5" ht="15.75" customHeight="1"/>
+    <row r="108" spans="4:5" ht="15.75" customHeight="1"/>
+    <row r="109" spans="4:5" ht="15.75" customHeight="1"/>
+    <row r="110" spans="4:5" ht="15.75" customHeight="1"/>
+    <row r="111" spans="4:5" ht="15.75" customHeight="1"/>
+    <row r="112" spans="4:5" ht="15.75" customHeight="1"/>
     <row r="113" ht="15.75" customHeight="1"/>
     <row r="114" ht="15.75" customHeight="1"/>
     <row r="115" ht="15.75" customHeight="1"/>
@@ -2384,28 +2620,24 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;CAdapted from A Discipline for Software Engineering,by Watts Humphrey. Addison-Wesley Publishing Company, 1995</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="7.57"/>
+    <col min="1" max="6" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -3409,24 +3641,20 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="7.57"/>
+    <col min="1" max="6" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -4430,24 +4658,20 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="7.57"/>
+    <col min="1" max="6" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -5451,24 +5675,20 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="7.57"/>
+    <col min="1" max="6" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -6472,24 +6692,20 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="7.57"/>
+    <col min="1" max="6" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -7493,24 +7709,20 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="7.57"/>
+    <col min="1" max="6" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -8514,24 +8726,20 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="7.57"/>
+    <col min="1" max="6" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -9535,24 +9743,20 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="7.57"/>
+    <col min="1" max="6" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -10556,24 +10760,20 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="7.57"/>
+    <col min="1" max="6" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -11577,24 +11777,20 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="7.57"/>
+    <col min="1" max="6" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -12598,24 +12794,20 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="7.57"/>
+    <col min="1" max="6" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -13619,24 +13811,20 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="7.57"/>
+    <col min="1" max="6" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -14640,24 +14828,20 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="7.57"/>
+    <col min="1" max="6" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -15661,24 +15845,20 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="7.57"/>
+    <col min="1" max="6" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -16682,24 +16862,20 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="7.57"/>
+    <col min="1" max="6" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -17703,9 +17879,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PSP/20141235 문혁주 PSP.xlsx
+++ b/PSP/20141235 문혁주 PSP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\문혁주\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535749FF-C7FE-4A9B-95A3-F6F250F2CD2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDA600F-1393-4858-BD07-BA14547019B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,15 @@
     <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
     <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -85,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -227,27 +235,6 @@
         <rFont val="돋움"/>
       </rPr>
       <t>수정</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Use Case </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Specification </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-      </rPr>
-      <t>작성</t>
     </r>
   </si>
   <si>
@@ -406,6 +393,40 @@
   <si>
     <t xml:space="preserve">Test Data Set 작성 </t>
   </si>
+  <si>
+    <t>12월 7일</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+  </si>
+  <si>
+    <t>12월 8일</t>
+  </si>
+  <si>
+    <t>12월 4일</t>
+  </si>
+  <si>
+    <t>프로젝트 수행계획서 최종본 만들기</t>
+  </si>
+  <si>
+    <t>12월 5일</t>
+  </si>
+  <si>
+    <t>UC spec 및 TestCase 수정</t>
+  </si>
+  <si>
+    <t>12월 6일</t>
+  </si>
 </sst>
 </file>
 
@@ -539,7 +560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -633,6 +654,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="백분율 2" xfId="1" xr:uid="{B9D605B0-81B6-490F-BE94-B5D47D65AA6E}"/>
@@ -851,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1063,7 +1096,7 @@
         <v>120</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.5">
@@ -1083,12 +1116,12 @@
         <v>180</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="22">
         <v>0.5</v>
@@ -1103,12 +1136,12 @@
         <v>180</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.5">
       <c r="A15" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="11">
         <v>0.83333333333333337</v>
@@ -1123,12 +1156,12 @@
         <v>120</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="13">
       <c r="A16" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="11">
         <v>0.75</v>
@@ -1143,12 +1176,12 @@
         <v>180</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.5">
       <c r="A17" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="22">
         <v>0.41666666666666669</v>
@@ -1163,12 +1196,12 @@
         <v>120</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13">
       <c r="A18" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="11">
         <v>0.75</v>
@@ -1183,12 +1216,12 @@
         <v>120</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="11">
         <v>0.75</v>
@@ -1203,12 +1236,12 @@
         <v>300</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.5">
       <c r="A20" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="11">
         <v>0.6875</v>
@@ -1223,12 +1256,12 @@
         <v>330</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="11">
         <v>0.54166666666666663</v>
@@ -1243,12 +1276,12 @@
         <v>270</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="43">
         <v>0.75</v>
@@ -1263,12 +1296,12 @@
         <v>240</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1">
       <c r="A23" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="40">
         <v>0.75</v>
@@ -1283,12 +1316,12 @@
         <v>240</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="11">
         <v>0.5</v>
@@ -1303,12 +1336,12 @@
         <v>330</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1">
       <c r="A25" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="33">
         <v>0.75</v>
@@ -1323,12 +1356,12 @@
         <v>270</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1">
       <c r="A26" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="33">
         <v>0.625</v>
@@ -1343,12 +1376,12 @@
         <v>90</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="27">
         <v>0.4375</v>
@@ -1363,12 +1396,12 @@
         <v>120</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="27">
         <v>0.5</v>
@@ -1383,12 +1416,12 @@
         <v>420</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="11">
         <v>0.77083333333333337</v>
@@ -1403,40 +1436,103 @@
         <v>30</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A30" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="48">
+        <v>0.75</v>
+      </c>
+      <c r="C30" s="43">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D30" s="49">
+        <v>0</v>
+      </c>
+      <c r="E30" s="50">
+        <v>300</v>
+      </c>
+      <c r="F30" s="51" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="15"/>
+      <c r="A31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="C31" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0</v>
+      </c>
+      <c r="E31" s="13">
+        <v>90</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A32" s="9"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="15"/>
+      <c r="A32" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0</v>
+      </c>
+      <c r="E32" s="13">
+        <v>120</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A33" s="9"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13"/>
+      <c r="A33" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0</v>
+      </c>
+      <c r="E33" s="12">
+        <v>420</v>
+      </c>
       <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A34" s="9"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
+      <c r="A34" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0</v>
+      </c>
+      <c r="D34" s="12">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12">
+        <v>360</v>
+      </c>
       <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1">
@@ -1456,19 +1552,10 @@
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A37" s="15"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="E37" s="52"/>
       <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A38" s="15"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
       <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6" ht="12.75" customHeight="1">
